--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙 '!$1:$1</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1408,6 +1408,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFill="1" applyBorder="1"/>
@@ -1447,6 +1450,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1521,12 +1527,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2630,20 +2630,20 @@
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
       <c r="E8" s="53"/>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="69"/>
       <c r="R8" s="45"/>
       <c r="S8" s="45"/>
       <c r="T8" s="45"/>
@@ -2662,26 +2662,26 @@
     </row>
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="48"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="75" t="s">
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="78"/>
       <c r="R9" s="45"/>
       <c r="S9" s="45"/>
       <c r="T9" s="45"/>
@@ -2700,22 +2700,22 @@
     </row>
     <row r="10" spans="1:176" ht="13.05" customHeight="1">
       <c r="A10" s="48"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="80"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="81"/>
       <c r="R10" s="45"/>
       <c r="S10" s="45"/>
       <c r="T10" s="45"/>
@@ -2926,26 +2926,26 @@
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
-      <c r="H17" s="84" t="s">
+      <c r="H17" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="84"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="85"/>
       <c r="AA17" s="45"/>
       <c r="AB17" s="45"/>
       <c r="AC17" s="45"/>
@@ -2961,24 +2961,24 @@
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="84"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="85"/>
       <c r="AA18" s="45"/>
       <c r="AB18" s="45"/>
       <c r="AC18" s="45"/>
@@ -2994,24 +2994,24 @@
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="84"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="85"/>
       <c r="Z19" s="45"/>
       <c r="AA19" s="45"/>
       <c r="AB19" s="45"/>
@@ -3239,12 +3239,12 @@
       <c r="C26" s="56"/>
       <c r="D26" s="56"/>
       <c r="E26" s="56"/>
-      <c r="F26" s="81">
+      <c r="F26" s="82">
         <v>45447</v>
       </c>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
       <c r="J26" s="55" t="s">
         <v>33</v>
       </c>
@@ -3898,25 +3898,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="85"/>
+      <c r="B1" s="86"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88" t="s">
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="88"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3926,29 +3926,29 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="115">
+      <c r="O1" s="90">
         <v>45446</v>
       </c>
-      <c r="P1" s="89"/>
+      <c r="P1" s="91"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="92" t="s">
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
       <c r="L2" s="6" t="s">
         <v>23</v>
       </c>
@@ -3958,48 +3958,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="91"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="93"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="100" t="s">
+      <c r="B3" s="99"/>
+      <c r="C3" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="104"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -4040,10 +4040,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="106" t="s">
+      <c r="L6" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="107"/>
+      <c r="M6" s="109"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -4067,9 +4067,7 @@
       <c r="D7" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="26">
-        <v>100</v>
-      </c>
+      <c r="E7" s="26"/>
       <c r="F7" s="27"/>
       <c r="G7" s="25" t="s">
         <v>79</v>
@@ -4086,10 +4084,10 @@
       <c r="K7" s="24">
         <v>1</v>
       </c>
-      <c r="L7" s="108" t="s">
+      <c r="L7" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="M7" s="109"/>
+      <c r="M7" s="111"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24" t="s">
         <v>111</v>
@@ -4128,10 +4126,10 @@
       <c r="K8" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="112" t="s">
+      <c r="L8" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="113"/>
+      <c r="M8" s="115"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24" t="s">
         <v>80</v>
@@ -4170,10 +4168,10 @@
       <c r="K9" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="110" t="s">
+      <c r="L9" s="112" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="111"/>
+      <c r="M9" s="113"/>
       <c r="N9" s="28"/>
       <c r="O9" s="24" t="s">
         <v>80</v>
@@ -4212,10 +4210,10 @@
       <c r="K10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="110" t="s">
+      <c r="L10" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="M10" s="111"/>
+      <c r="M10" s="113"/>
       <c r="N10" s="28"/>
       <c r="O10" s="24" t="s">
         <v>80</v>
@@ -4254,10 +4252,10 @@
       <c r="K11" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="110" t="s">
+      <c r="L11" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="M11" s="111"/>
+      <c r="M11" s="113"/>
       <c r="N11" s="28"/>
       <c r="O11" s="24" t="s">
         <v>80</v>
@@ -4296,10 +4294,10 @@
       <c r="K12" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="110" t="s">
+      <c r="L12" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="111"/>
+      <c r="M12" s="113"/>
       <c r="N12" s="28"/>
       <c r="O12" s="24" t="s">
         <v>80</v>
@@ -4338,10 +4336,10 @@
       <c r="K13" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="L13" s="94" t="s">
+      <c r="L13" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="M13" s="95"/>
+      <c r="M13" s="97"/>
       <c r="N13" s="34"/>
       <c r="O13" s="24" t="s">
         <v>80</v>
@@ -4380,10 +4378,10 @@
       <c r="K14" s="24">
         <v>0</v>
       </c>
-      <c r="L14" s="94" t="s">
+      <c r="L14" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="M14" s="95"/>
+      <c r="M14" s="97"/>
       <c r="N14" s="34" t="s">
         <v>110</v>
       </c>
@@ -4424,10 +4422,10 @@
       <c r="K15" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="L15" s="94" t="s">
+      <c r="L15" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="M15" s="95"/>
+      <c r="M15" s="97"/>
       <c r="N15" s="34"/>
       <c r="O15" s="24" t="s">
         <v>80</v>
@@ -4466,10 +4464,10 @@
       <c r="K16" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="L16" s="94" t="s">
+      <c r="L16" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="M16" s="95"/>
+      <c r="M16" s="97"/>
       <c r="N16" s="34"/>
       <c r="O16" s="24" t="s">
         <v>80</v>
@@ -4508,10 +4506,10 @@
       <c r="K17" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="L17" s="94" t="s">
+      <c r="L17" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="M17" s="95"/>
+      <c r="M17" s="97"/>
       <c r="N17" s="34"/>
       <c r="O17" s="24" t="s">
         <v>80</v>
@@ -4550,10 +4548,10 @@
       <c r="K18" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="L18" s="94" t="s">
+      <c r="L18" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="M18" s="95"/>
+      <c r="M18" s="97"/>
       <c r="N18" s="34"/>
       <c r="O18" s="24" t="s">
         <v>80</v>
@@ -4592,10 +4590,10 @@
       <c r="K19" s="24">
         <v>0</v>
       </c>
-      <c r="L19" s="94" t="s">
+      <c r="L19" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="M19" s="95"/>
+      <c r="M19" s="97"/>
       <c r="N19" s="34" t="s">
         <v>109</v>
       </c>
@@ -4636,10 +4634,10 @@
       <c r="K20" s="24">
         <v>0</v>
       </c>
-      <c r="L20" s="94" t="s">
+      <c r="L20" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="M20" s="95"/>
+      <c r="M20" s="97"/>
       <c r="N20" s="34" t="s">
         <v>108</v>
       </c>
@@ -4678,10 +4676,10 @@
       <c r="K21" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="94" t="s">
+      <c r="L21" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="M21" s="95"/>
+      <c r="M21" s="97"/>
       <c r="N21" s="34"/>
       <c r="O21" s="24" t="s">
         <v>80</v>
@@ -4692,7 +4690,7 @@
       <c r="A22" s="32">
         <v>16</v>
       </c>
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="66" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="24" t="s">
@@ -4718,10 +4716,10 @@
       <c r="K22" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="94" t="s">
+      <c r="L22" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="M22" s="95"/>
+      <c r="M22" s="97"/>
       <c r="N22" s="34"/>
       <c r="O22" s="24" t="s">
         <v>80</v>
